--- a/data/trans_dic/P38A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P38A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,13%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>49,93; 59,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>52,46; 62,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>40,62; 56,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>59,4; 68,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>62,83; 71,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>55,36; 69,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>56,17; 62,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>59,16; 65,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>49,93; 60,27</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,06%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>78,45; 84,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>71,75; 79,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>65,59; 76,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>84,74; 90,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>83,82; 89,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>68,79; 81,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>81,94; 86,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>78,8; 83,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>69,15; 77,5</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,01%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>83,29; 88,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>79,05; 85,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>77,37; 84,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>91,6; 95,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>86,45; 91,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>84,05; 89,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>88,37; 91,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>83,6; 87,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>81,63; 86,12</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,15%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>90,49; 94,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>86,33; 91,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>61,86; 90,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>88,35; 93,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>90,14; 94,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>91,49; 94,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>90,54; 93,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>89,07; 92,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>75,02; 91,84</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,68%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>92,25; 97,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>90,83; 95,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>90,01; 94,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>92,59; 96,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>91,91; 96,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>93,14; 96,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>93,28; 96,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>92,44; 95,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>92,1; 94,92</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,32%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>95,95; 98,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>96,21; 98,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>96,06; 98,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>95,98; 98,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>97,01; 99,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>96,03; 98,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>96,43; 98,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>97,27; 98,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>96,52; 98,02</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,43%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>84,02; 86,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>82,1; 84,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,45; 83,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,57; 90,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,75; 90,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>87,01; 89,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>86,67; 88,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>85,91; 87,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>83,45; 86,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,43%</t>
+          <t>52,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>65,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>57,82%</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,62; 56,75</t>
+          <t>43,84; 60,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,36; 69,32</t>
+          <t>57,99; 72,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,93; 60,27</t>
+          <t>51,99; 63,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>72,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>70,74%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,59; 76,83</t>
+          <t>66,73; 77,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,79; 81,28</t>
+          <t>45,38; 81,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,15; 77,5</t>
+          <t>54,21; 77,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>84,83%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,37; 84,35</t>
+          <t>78,59; 85,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,05; 89,03</t>
+          <t>84,88; 89,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,14 +945,14 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,63; 86,12</t>
+          <t>82,49; 86,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>77,62%</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,86; 90,22</t>
+          <t>27,89; 90,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,49; 94,53</t>
+          <t>92,04; 95,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>75,02; 91,84</t>
+          <t>41,66; 92,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>93,89%</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,01; 94,46</t>
+          <t>90,39; 94,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,14; 96,32</t>
+          <t>93,33; 96,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,1; 94,92</t>
+          <t>92,36; 95,07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,89%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,95; 98,61</t>
+          <t>95,43; 98,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96,21; 98,74</t>
+          <t>95,52; 99,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,06; 98,26</t>
+          <t>95,05; 97,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,98; 98,47</t>
+          <t>93,21; 97,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,01; 99,19</t>
+          <t>96,66; 99,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,03; 98,31</t>
+          <t>97,58; 99,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,43; 98,25</t>
+          <t>95,1; 97,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,27; 98,86</t>
+          <t>96,86; 98,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,52; 98,02</t>
+          <t>96,88; 99,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>97,24%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>94,48; 98,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>95,88; 99,32</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>96,64; 99,44</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>97,04; 99,7</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>96,11; 99,68</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94,89; 97,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>96,94; 99,11</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96,81; 99,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96,15; 98,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>85,31%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>83,58%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>77,65%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>89,67%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>89,83%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>88,23%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>87,53%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>86,78%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>83,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>84,02; 86,54</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>82,1; 84,92</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>77,45; 83,92</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59,75; 84,06</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>88,57; 90,61</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>88,75; 90,81</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>87,01; 89,96</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>82,02; 90,58</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>86,67; 88,3</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>85,91; 87,51</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>83,45; 86,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>73,0; 86,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P38A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,93; 59,74</t>
+          <t>49,97; 59,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,46; 62,36</t>
+          <t>52,21; 62,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,84; 60,98</t>
+          <t>43,03; 61,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,4; 68,97</t>
+          <t>59,5; 69,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,83; 71,92</t>
+          <t>62,85; 71,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,99; 72,09</t>
+          <t>58,35; 72,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,17; 62,91</t>
+          <t>56,09; 62,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,16; 65,78</t>
+          <t>58,67; 65,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,99; 63,29</t>
+          <t>51,54; 63,58</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,45; 84,28</t>
+          <t>78,55; 84,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,75; 79,1</t>
+          <t>71,78; 78,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,73; 77,97</t>
+          <t>66,9; 77,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,74; 90,12</t>
+          <t>84,41; 89,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,82; 89,19</t>
+          <t>83,96; 89,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,38; 81,6</t>
+          <t>43,36; 81,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,94; 86,03</t>
+          <t>82,22; 86,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,8; 83,14</t>
+          <t>78,64; 83,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,21; 77,62</t>
+          <t>54,14; 77,8</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,29; 88,79</t>
+          <t>83,1; 88,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,05; 85,18</t>
+          <t>79,35; 85,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,59; 85,34</t>
+          <t>78,59; 85,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,6; 95,41</t>
+          <t>91,76; 95,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,45; 91,36</t>
+          <t>86,6; 91,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,88; 89,63</t>
+          <t>85,01; 89,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,37; 91,65</t>
+          <t>88,47; 91,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,6; 87,58</t>
+          <t>83,73; 87,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,49; 86,81</t>
+          <t>82,66; 86,84</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,49; 94,88</t>
+          <t>90,39; 94,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,33; 91,5</t>
+          <t>86,11; 91,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,89; 90,47</t>
+          <t>29,24; 90,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,35; 93,29</t>
+          <t>88,61; 93,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,14; 94,36</t>
+          <t>90,28; 94,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,04; 95,03</t>
+          <t>92,06; 95,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,54; 93,71</t>
+          <t>90,56; 93,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,07; 92,5</t>
+          <t>88,86; 92,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,66; 92,24</t>
+          <t>45,86; 92,2</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,25; 97,1</t>
+          <t>92,16; 97,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,83; 95,55</t>
+          <t>90,8; 95,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,39; 94,71</t>
+          <t>90,36; 94,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,59; 96,83</t>
+          <t>92,76; 97,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,91; 96,46</t>
+          <t>92,16; 96,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,33; 96,4</t>
+          <t>93,13; 96,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>93,28; 96,47</t>
+          <t>93,31; 96,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,44; 95,5</t>
+          <t>92,27; 95,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,36; 95,07</t>
+          <t>92,6; 95,06</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,43; 98,96</t>
+          <t>95,25; 98,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,52; 99,0</t>
+          <t>95,49; 99,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,05; 97,91</t>
+          <t>94,68; 97,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,21; 97,68</t>
+          <t>93,27; 97,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,66; 99,41</t>
+          <t>96,62; 99,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,6</t>
+          <t>97,6; 99,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>95,1; 97,95</t>
+          <t>95,09; 97,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96,86; 98,89</t>
+          <t>96,78; 98,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,88; 99,0</t>
+          <t>96,87; 99,04</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>94,48; 98,93</t>
+          <t>94,49; 99,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,88; 99,32</t>
+          <t>96,22; 99,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,64; 99,44</t>
+          <t>96,92; 99,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>97,04; 99,7</t>
+          <t>97,1; 99,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,11; 99,68</t>
+          <t>96,31; 99,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,89; 97,53</t>
+          <t>94,79; 97,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,94; 99,11</t>
+          <t>96,74; 99,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>96,81; 99,11</t>
+          <t>96,89; 99,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>96,15; 98,06</t>
+          <t>96,09; 98,07</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>84,02; 86,54</t>
+          <t>83,91; 86,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>82,1; 84,92</t>
+          <t>82,19; 84,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,75; 84,06</t>
+          <t>60,45; 84,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>88,57; 90,61</t>
+          <t>88,5; 90,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>88,75; 90,81</t>
+          <t>88,79; 90,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,02; 90,58</t>
+          <t>81,85; 90,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>86,67; 88,3</t>
+          <t>86,69; 88,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>85,91; 87,51</t>
+          <t>85,96; 87,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>73,0; 86,79</t>
+          <t>73,87; 86,85</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han tomado la tensión alguna vez un/a profesional sanitario/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>246231</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>233066</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>208516</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>274886</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>266586</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>203851</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>521117</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>499651</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>412367</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>224062; 265733</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>213121; 254752</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>172124; 245184</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>253678; 294278</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>247522; 283371</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>182745; 225717</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>490638; 550421</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>470564; 525172</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>367604; 453472</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>557129</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>443291</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>307143</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>532417</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>489033</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>354358</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1089545</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>932324</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>661501</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>537294; 575912</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>422383; 462825</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>283364; 329179</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>514354; 547757</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>472312; 502988</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>221776; 417833</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1063398; 1116794</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>905173; 959529</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>506226; 727429</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>586172</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>544848</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>441169</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>666052</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>585492</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>473953</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1252223</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1130341</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>915123</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>564336; 602060</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>525760; 564844</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>421528; 457530</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>652303; 677942</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>569584; 600969</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>461135; 487535</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1229622; 1274552</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1105450; 1153300</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>891720; 936794</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>570175</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>571623</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>574936</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>559833</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>600007</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>667181</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1130008</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1171630</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1242118</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>554649; 582063</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>553846; 588076</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>259622; 803458</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>543335; 573139</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>585078; 611904</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>655935; 677344</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1111021; 1148517</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1147395; 1191548</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>733947; 1475393</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>403060</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>446050</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>520736</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>423630</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>468265</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>520675</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>826690</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>914314</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1041411</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>390666; 411643</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>433016; 455288</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>507114; 530911</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>412656; 431725</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>455766; 477348</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>510278; 528179</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>810615; 839557</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>896312; 929019</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1027055; 1054312</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>298573</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>326268</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>355651</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>337143</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>371617</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>635715</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>697885</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>955927</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>291236; 302687</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>319240; 331165</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>348585; 360443</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>327561; 343462</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>364992; 375650</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>593782; 605952</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>624662; 643404</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>689183; 703880</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>945987; 967153</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>241925</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>251156</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>278386</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>384446</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>394183</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>410670</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>626371</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>645338</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>689057</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>234992; 246400</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>246468; 254394</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>274036; 281259</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>377706; 387818</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>385393; 398921</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>403643; 416103</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>616854; 631970</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>635946; 651115</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>680894; 694885</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2707</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2692</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5645</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5662</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7876</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2903265</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2816300</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2686540</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3178406</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3175183</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3230964</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6081671</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>5991483</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5917504</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2855711; 2940312</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2769411; 2856110</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2091288; 2911284</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3136959; 3211722</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3138530; 3209704</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2997333; 3314381</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6023651; 6137725</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5934921; 6046536</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5260639; 6184803</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>